--- a/charts_quandl/BOM500410_close.xlsx
+++ b/charts_quandl/BOM500410_close.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="145">
   <si>
     <t>Exchange : BSE ||  Scrip : BOM500410</t>
   </si>
   <si>
-    <t>Type : close || Date : 2019-08-28 00:00:00</t>
-  </si>
-  <si>
-    <t>Box : 16 || Close : 1541.35</t>
+    <t>Type : close || Date : 2019-08-29 00:00:00</t>
+  </si>
+  <si>
+    <t>Box : 16 || Close : 1502.8</t>
   </si>
   <si>
     <t>Reversal : 3</t>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>2019-08-27 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-08-29 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -837,16 +840,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DA55"/>
+  <dimension ref="A1:DB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="2" max="106" width="2.140625" customWidth="1"/>
+    <col min="2" max="107" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="12" customHeight="1">
+    <row r="1" spans="1:106" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,8 +957,9 @@
       <c r="CY1" s="2"/>
       <c r="CZ1" s="2"/>
       <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
     </row>
-    <row r="2" spans="1:105" ht="12" customHeight="1">
+    <row r="2" spans="1:106" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1061,8 +1065,9 @@
       <c r="CY2" s="2"/>
       <c r="CZ2" s="2"/>
       <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
     </row>
-    <row r="3" spans="1:105" ht="12" customHeight="1">
+    <row r="3" spans="1:106" ht="12" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,8 +1175,9 @@
       <c r="CY3" s="2"/>
       <c r="CZ3" s="2"/>
       <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
     </row>
-    <row r="4" spans="1:105" ht="12" customHeight="1">
+    <row r="4" spans="1:106" ht="12" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1277,8 +1283,9 @@
       <c r="CY4" s="2"/>
       <c r="CZ4" s="2"/>
       <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
     </row>
-    <row r="5" spans="1:105" ht="12" customHeight="1">
+    <row r="5" spans="1:106" ht="12" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1386,8 +1393,9 @@
       <c r="CY5" s="2"/>
       <c r="CZ5" s="2"/>
       <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
     </row>
-    <row r="6" spans="1:105" ht="12" customHeight="1">
+    <row r="6" spans="1:106" ht="12" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1493,8 +1501,9 @@
       <c r="CY6" s="2"/>
       <c r="CZ6" s="2"/>
       <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
     </row>
-    <row r="7" spans="1:105" ht="12" customHeight="1">
+    <row r="7" spans="1:106" ht="12" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1602,8 +1611,9 @@
       <c r="CY7" s="2"/>
       <c r="CZ7" s="2"/>
       <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
     </row>
-    <row r="8" spans="1:105" ht="12" customHeight="1">
+    <row r="8" spans="1:106" ht="12" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1709,8 +1719,9 @@
       <c r="CY8" s="2"/>
       <c r="CZ8" s="2"/>
       <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
     </row>
-    <row r="9" spans="1:105" ht="12" customHeight="1">
+    <row r="9" spans="1:106" ht="12" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1816,8 +1827,9 @@
       <c r="CY9" s="2"/>
       <c r="CZ9" s="2"/>
       <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
     </row>
-    <row r="10" spans="1:105" ht="12" customHeight="1">
+    <row r="10" spans="1:106" ht="12" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1923,8 +1935,9 @@
       <c r="CY10" s="2"/>
       <c r="CZ10" s="2"/>
       <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
     </row>
-    <row r="11" spans="1:105" ht="12" customHeight="1">
+    <row r="11" spans="1:106" ht="12" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2032,8 +2045,9 @@
       <c r="CY11" s="2"/>
       <c r="CZ11" s="2"/>
       <c r="DA11" s="2"/>
+      <c r="DB11" s="2"/>
     </row>
-    <row r="12" spans="1:105" ht="12" customHeight="1">
+    <row r="12" spans="1:106" ht="12" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2141,8 +2155,9 @@
       <c r="CY12" s="2"/>
       <c r="CZ12" s="2"/>
       <c r="DA12" s="2"/>
+      <c r="DB12" s="2"/>
     </row>
-    <row r="13" spans="1:105" ht="12" customHeight="1">
+    <row r="13" spans="1:106" ht="12" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2250,8 +2265,9 @@
       <c r="CY13" s="2"/>
       <c r="CZ13" s="2"/>
       <c r="DA13" s="2"/>
+      <c r="DB13" s="2"/>
     </row>
-    <row r="14" spans="1:105" ht="12" customHeight="1">
+    <row r="14" spans="1:106" ht="12" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2363,8 +2379,9 @@
       <c r="CY14" s="2"/>
       <c r="CZ14" s="2"/>
       <c r="DA14" s="2"/>
+      <c r="DB14" s="2"/>
     </row>
-    <row r="15" spans="1:105" ht="12" customHeight="1">
+    <row r="15" spans="1:106" ht="12" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2480,8 +2497,9 @@
       <c r="CY15" s="2"/>
       <c r="CZ15" s="2"/>
       <c r="DA15" s="2"/>
+      <c r="DB15" s="2"/>
     </row>
-    <row r="16" spans="1:105" ht="12" customHeight="1">
+    <row r="16" spans="1:106" ht="12" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2605,8 +2623,9 @@
       <c r="CY16" s="2"/>
       <c r="CZ16" s="2"/>
       <c r="DA16" s="2"/>
+      <c r="DB16" s="2"/>
     </row>
-    <row r="17" spans="1:105" ht="12" customHeight="1">
+    <row r="17" spans="1:106" ht="12" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2738,8 +2757,9 @@
       <c r="CY17" s="2"/>
       <c r="CZ17" s="2"/>
       <c r="DA17" s="2"/>
+      <c r="DB17" s="2"/>
     </row>
-    <row r="18" spans="1:105" ht="12" customHeight="1">
+    <row r="18" spans="1:106" ht="12" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2871,8 +2891,9 @@
       <c r="CY18" s="2"/>
       <c r="CZ18" s="2"/>
       <c r="DA18" s="2"/>
+      <c r="DB18" s="2"/>
     </row>
-    <row r="19" spans="1:105" ht="12" customHeight="1">
+    <row r="19" spans="1:106" ht="12" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -3000,8 +3021,9 @@
       <c r="CY19" s="2"/>
       <c r="CZ19" s="2"/>
       <c r="DA19" s="2"/>
+      <c r="DB19" s="2"/>
     </row>
-    <row r="20" spans="1:105" ht="12" customHeight="1">
+    <row r="20" spans="1:106" ht="12" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -3127,8 +3149,9 @@
       <c r="CY20" s="2"/>
       <c r="CZ20" s="2"/>
       <c r="DA20" s="2"/>
+      <c r="DB20" s="2"/>
     </row>
-    <row r="21" spans="1:105" ht="12" customHeight="1">
+    <row r="21" spans="1:106" ht="12" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -3260,8 +3283,9 @@
       <c r="CY21" s="2"/>
       <c r="CZ21" s="2"/>
       <c r="DA21" s="2"/>
+      <c r="DB21" s="2"/>
     </row>
-    <row r="22" spans="1:105" ht="12" customHeight="1">
+    <row r="22" spans="1:106" ht="12" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -3401,8 +3425,9 @@
       <c r="CY22" s="2"/>
       <c r="CZ22" s="2"/>
       <c r="DA22" s="2"/>
+      <c r="DB22" s="2"/>
     </row>
-    <row r="23" spans="1:105" ht="12" customHeight="1">
+    <row r="23" spans="1:106" ht="12" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3550,8 +3575,9 @@
       <c r="CY23" s="2"/>
       <c r="CZ23" s="2"/>
       <c r="DA23" s="2"/>
+      <c r="DB23" s="2"/>
     </row>
-    <row r="24" spans="1:105" ht="12" customHeight="1">
+    <row r="24" spans="1:106" ht="12" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -3705,8 +3731,9 @@
       <c r="CY24" s="2"/>
       <c r="CZ24" s="2"/>
       <c r="DA24" s="2"/>
+      <c r="DB24" s="2"/>
     </row>
-    <row r="25" spans="1:105" ht="12" customHeight="1">
+    <row r="25" spans="1:106" ht="12" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -3862,8 +3889,9 @@
       <c r="CY25" s="2"/>
       <c r="CZ25" s="2"/>
       <c r="DA25" s="2"/>
+      <c r="DB25" s="2"/>
     </row>
-    <row r="26" spans="1:105" ht="12" customHeight="1">
+    <row r="26" spans="1:106" ht="12" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -4027,8 +4055,9 @@
       <c r="CY26" s="2"/>
       <c r="CZ26" s="2"/>
       <c r="DA26" s="2"/>
+      <c r="DB26" s="2"/>
     </row>
-    <row r="27" spans="1:105" ht="12" customHeight="1">
+    <row r="27" spans="1:106" ht="12" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -4200,8 +4229,9 @@
       <c r="CY27" s="2"/>
       <c r="CZ27" s="2"/>
       <c r="DA27" s="2"/>
+      <c r="DB27" s="2"/>
     </row>
-    <row r="28" spans="1:105" ht="12" customHeight="1">
+    <row r="28" spans="1:106" ht="12" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -4371,8 +4401,9 @@
       <c r="CY28" s="2"/>
       <c r="CZ28" s="2"/>
       <c r="DA28" s="2"/>
+      <c r="DB28" s="2"/>
     </row>
-    <row r="29" spans="1:105" ht="12" customHeight="1">
+    <row r="29" spans="1:106" ht="12" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -4544,8 +4575,9 @@
       <c r="CY29" s="2"/>
       <c r="CZ29" s="2"/>
       <c r="DA29" s="2"/>
+      <c r="DB29" s="2"/>
     </row>
-    <row r="30" spans="1:105" ht="12" customHeight="1">
+    <row r="30" spans="1:106" ht="12" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -4713,8 +4745,9 @@
       <c r="CY30" s="2"/>
       <c r="CZ30" s="2"/>
       <c r="DA30" s="2"/>
+      <c r="DB30" s="2"/>
     </row>
-    <row r="31" spans="1:105" ht="12" customHeight="1">
+    <row r="31" spans="1:106" ht="12" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -4878,8 +4911,9 @@
       <c r="CY31" s="2"/>
       <c r="CZ31" s="2"/>
       <c r="DA31" s="2"/>
+      <c r="DB31" s="2"/>
     </row>
-    <row r="32" spans="1:105" ht="12" customHeight="1">
+    <row r="32" spans="1:106" ht="12" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -5043,8 +5077,9 @@
       <c r="CY32" s="2"/>
       <c r="CZ32" s="2"/>
       <c r="DA32" s="2"/>
+      <c r="DB32" s="2"/>
     </row>
-    <row r="33" spans="1:105" ht="12" customHeight="1">
+    <row r="33" spans="1:106" ht="12" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -5210,8 +5245,9 @@
       <c r="CY33" s="2"/>
       <c r="CZ33" s="2"/>
       <c r="DA33" s="2"/>
+      <c r="DB33" s="2"/>
     </row>
-    <row r="34" spans="1:105" ht="12" customHeight="1">
+    <row r="34" spans="1:106" ht="12" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -5364,7 +5400,9 @@
       <c r="CR34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="CS34" s="2"/>
+      <c r="CS34" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="CT34" s="2"/>
       <c r="CU34" s="2"/>
       <c r="CV34" s="2"/>
@@ -5373,8 +5411,9 @@
       <c r="CY34" s="2"/>
       <c r="CZ34" s="2"/>
       <c r="DA34" s="2"/>
+      <c r="DB34" s="2"/>
     </row>
-    <row r="35" spans="1:105" ht="12" customHeight="1">
+    <row r="35" spans="1:106" ht="12" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -5519,7 +5558,9 @@
       <c r="CR35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="CS35" s="2"/>
+      <c r="CS35" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="CT35" s="2"/>
       <c r="CU35" s="2"/>
       <c r="CV35" s="2"/>
@@ -5528,8 +5569,9 @@
       <c r="CY35" s="2"/>
       <c r="CZ35" s="2"/>
       <c r="DA35" s="2"/>
+      <c r="DB35" s="2"/>
     </row>
-    <row r="36" spans="1:105" ht="12" customHeight="1">
+    <row r="36" spans="1:106" ht="12" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -5670,7 +5712,9 @@
       <c r="CR36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="CS36" s="2"/>
+      <c r="CS36" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="CT36" s="2"/>
       <c r="CU36" s="2"/>
       <c r="CV36" s="2"/>
@@ -5679,8 +5723,9 @@
       <c r="CY36" s="2"/>
       <c r="CZ36" s="2"/>
       <c r="DA36" s="2"/>
+      <c r="DB36" s="2"/>
     </row>
-    <row r="37" spans="1:105" ht="12" customHeight="1">
+    <row r="37" spans="1:106" ht="12" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -5828,8 +5873,9 @@
       <c r="CY37" s="2"/>
       <c r="CZ37" s="2"/>
       <c r="DA37" s="2"/>
+      <c r="DB37" s="2"/>
     </row>
-    <row r="38" spans="1:105" ht="12" customHeight="1">
+    <row r="38" spans="1:106" ht="12" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -5975,8 +6021,9 @@
       <c r="CY38" s="2"/>
       <c r="CZ38" s="2"/>
       <c r="DA38" s="2"/>
+      <c r="DB38" s="2"/>
     </row>
-    <row r="39" spans="1:105" ht="12" customHeight="1">
+    <row r="39" spans="1:106" ht="12" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -6118,8 +6165,9 @@
       <c r="CY39" s="2"/>
       <c r="CZ39" s="2"/>
       <c r="DA39" s="2"/>
+      <c r="DB39" s="2"/>
     </row>
-    <row r="40" spans="1:105" ht="12" customHeight="1">
+    <row r="40" spans="1:106" ht="12" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -6255,8 +6303,9 @@
       <c r="CY40" s="2"/>
       <c r="CZ40" s="2"/>
       <c r="DA40" s="2"/>
+      <c r="DB40" s="2"/>
     </row>
-    <row r="41" spans="1:105" ht="12" customHeight="1">
+    <row r="41" spans="1:106" ht="12" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -6388,8 +6437,9 @@
       <c r="CY41" s="2"/>
       <c r="CZ41" s="2"/>
       <c r="DA41" s="2"/>
+      <c r="DB41" s="2"/>
     </row>
-    <row r="42" spans="1:105" ht="12" customHeight="1">
+    <row r="42" spans="1:106" ht="12" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -6521,8 +6571,9 @@
       <c r="CY42" s="2"/>
       <c r="CZ42" s="2"/>
       <c r="DA42" s="2"/>
+      <c r="DB42" s="2"/>
     </row>
-    <row r="43" spans="1:105" ht="12" customHeight="1">
+    <row r="43" spans="1:106" ht="12" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -6656,8 +6707,9 @@
       <c r="CY43" s="2"/>
       <c r="CZ43" s="2"/>
       <c r="DA43" s="2"/>
+      <c r="DB43" s="2"/>
     </row>
-    <row r="44" spans="1:105" ht="12" customHeight="1">
+    <row r="44" spans="1:106" ht="12" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -6795,8 +6847,9 @@
       <c r="CY44" s="2"/>
       <c r="CZ44" s="2"/>
       <c r="DA44" s="2"/>
+      <c r="DB44" s="2"/>
     </row>
-    <row r="45" spans="1:105" ht="12" customHeight="1">
+    <row r="45" spans="1:106" ht="12" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -6936,8 +6989,9 @@
       <c r="CY45" s="2"/>
       <c r="CZ45" s="2"/>
       <c r="DA45" s="2"/>
+      <c r="DB45" s="2"/>
     </row>
-    <row r="46" spans="1:105" ht="12" customHeight="1">
+    <row r="46" spans="1:106" ht="12" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -7077,8 +7131,9 @@
       <c r="CY46" s="2"/>
       <c r="CZ46" s="2"/>
       <c r="DA46" s="2"/>
+      <c r="DB46" s="2"/>
     </row>
-    <row r="47" spans="1:105" ht="12" customHeight="1">
+    <row r="47" spans="1:106" ht="12" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -7216,8 +7271,9 @@
       <c r="CY47" s="2"/>
       <c r="CZ47" s="2"/>
       <c r="DA47" s="2"/>
+      <c r="DB47" s="2"/>
     </row>
-    <row r="48" spans="1:105" ht="12" customHeight="1">
+    <row r="48" spans="1:106" ht="12" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -7349,8 +7405,9 @@
       <c r="CY48" s="2"/>
       <c r="CZ48" s="2"/>
       <c r="DA48" s="2"/>
+      <c r="DB48" s="2"/>
     </row>
-    <row r="49" spans="1:105" ht="12" customHeight="1">
+    <row r="49" spans="1:106" ht="12" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
@@ -7476,8 +7533,9 @@
       <c r="CY49" s="2"/>
       <c r="CZ49" s="2"/>
       <c r="DA49" s="2"/>
+      <c r="DB49" s="2"/>
     </row>
-    <row r="50" spans="1:105" ht="12" customHeight="1">
+    <row r="50" spans="1:106" ht="12" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -7593,8 +7651,9 @@
       <c r="CY50" s="2"/>
       <c r="CZ50" s="2"/>
       <c r="DA50" s="2"/>
+      <c r="DB50" s="2"/>
     </row>
-    <row r="51" spans="1:105" ht="12" customHeight="1">
+    <row r="51" spans="1:106" ht="12" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -7702,8 +7761,9 @@
       <c r="CY51" s="2"/>
       <c r="CZ51" s="2"/>
       <c r="DA51" s="2"/>
+      <c r="DB51" s="2"/>
     </row>
-    <row r="52" spans="1:105" ht="12" customHeight="1">
+    <row r="52" spans="1:106" ht="12" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -7811,8 +7871,9 @@
       <c r="CY52" s="2"/>
       <c r="CZ52" s="2"/>
       <c r="DA52" s="2"/>
+      <c r="DB52" s="2"/>
     </row>
-    <row r="53" spans="1:105" ht="12" customHeight="1">
+    <row r="53" spans="1:106" ht="12" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -7920,8 +7981,9 @@
       <c r="CY53" s="2"/>
       <c r="CZ53" s="2"/>
       <c r="DA53" s="2"/>
+      <c r="DB53" s="2"/>
     </row>
-    <row r="55" spans="1:105" ht="100" customHeight="1">
+    <row r="55" spans="1:106" ht="100" customHeight="1">
       <c r="B55" s="5" t="s">
         <v>48</v>
       </c>
@@ -8207,7 +8269,9 @@
       <c r="CR55" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="CS55" s="5"/>
+      <c r="CS55" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="CT55" s="5"/>
       <c r="CU55" s="5"/>
       <c r="CV55" s="5"/>
@@ -8216,6 +8280,7 @@
       <c r="CY55" s="5"/>
       <c r="CZ55" s="5"/>
       <c r="DA55" s="5"/>
+      <c r="DB55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/charts_quandl/BOM500410_close.xlsx
+++ b/charts_quandl/BOM500410_close.xlsx
@@ -19,10 +19,10 @@
     <t>Exchange : BSE ||  Scrip : BOM500410</t>
   </si>
   <si>
-    <t>Type : close || Date : 2019-08-29 00:00:00</t>
-  </si>
-  <si>
-    <t>Box : 16 || Close : 1502.8</t>
+    <t>Type : close || Date : 2019-08-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Box : 16 || Close : 1518.9</t>
   </si>
   <si>
     <t>Reversal : 3</t>
